--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_v1.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_v1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Dia</t>
   </si>
@@ -34,12 +34,6 @@
     <t>estoque_atualizado</t>
   </si>
   <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
     <t>2025-05-28</t>
   </si>
   <si>
@@ -49,70 +43,154 @@
     <t>2025-05-30</t>
   </si>
   <si>
-    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+    <t>THE SYNDICATE RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>PALITO DE DENTE SACHE C/2000 UND</t>
+  </si>
+  <si>
+    <t>RODO COM CABO G 60CM</t>
   </si>
   <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
-    <t>SACO PLAST BD 50X80 N30 PC/25</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>FITA DUREX 48 X 50 TRANSPARENTE AMAZONTAPE</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
   </si>
 </sst>
 </file>
@@ -470,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,279 +579,559 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>11936640</v>
+        <v>13881226</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>1704</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>16871438</v>
+        <v>14589858</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>2271</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>16921300</v>
+        <v>31186309</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>17105277</v>
+        <v>16175304</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>14589858</v>
+        <v>11905183</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>11905183</v>
+        <v>17093168</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>31186309</v>
+        <v>11939672</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>217</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>13881226</v>
+        <v>27104217</v>
       </c>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
         <v>26</v>
-      </c>
-      <c r="F9">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>17069759</v>
+        <v>11939652</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>634</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>11939672</v>
+        <v>13451851</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>136</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>14979850</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>253</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>11939652</v>
+        <v>12060072</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>13451851</v>
+        <v>12919709</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>14960017</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>11939530</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>16921300</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
         <v>14667825</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>32130390</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>19792364</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>28503269</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>28631402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>14589858</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>11939607</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>458</v>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>30240035</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>11939645</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>14413867</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>14589837</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>12120701</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
